--- a/data/income_statement/2digits/size/27_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/27_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>27-Manufacture of electrical equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>27-Manufacture of electrical equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>22396865.05765</v>
+        <v>22155534.80216</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>25105209.42212</v>
+        <v>24901435.84425</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>33933286.27748</v>
+        <v>33676409.97929</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>37132262.02179</v>
+        <v>36786890.22625</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>42091414.42019</v>
+        <v>41703083.38428</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>45099192.82926</v>
+        <v>46211720.74319001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>33672972.26125</v>
+        <v>52092772.10311</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>59252637.01248001</v>
+        <v>59256230.73781</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>78682545.83400001</v>
+        <v>77586735.47414999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>93706002.04158001</v>
+        <v>92723970.76734</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>105803783.3932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>104669564.4318</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>134044071.89</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>12428096.50358</v>
+        <v>12228347.88727</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>14092618.29931</v>
+        <v>13942064.87359</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>19284411.65183</v>
+        <v>19064260.90051</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>20903501.73424</v>
+        <v>20615123.6733</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>23256513.48572</v>
+        <v>22983520.1488</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>24868708.16855</v>
+        <v>25932920.96209</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>19373343.9802</v>
+        <v>29293292.30081</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>33839813.85408</v>
+        <v>33697682.00748</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>45345765.9009</v>
+        <v>44461622.22497</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>48109285.42067</v>
+        <v>47436805.4087</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>52921197.35985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>52155610.39105</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>69633567.509</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>9497502.136290001</v>
+        <v>9459225.80859</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>10500261.16171</v>
+        <v>10449810.20974</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>13867831.66999</v>
+        <v>13833490.08087</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>15407797.82352</v>
+        <v>15356123.64138</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>17812657.32921</v>
+        <v>17700203.3018</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>19179589.07689</v>
+        <v>19241420.87932</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>14071070.90293</v>
+        <v>21565315.01909</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>23912987.06336</v>
+        <v>24061996.69266</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>31136699.01398</v>
+        <v>30945821.21509</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>42642277.30928001</v>
+        <v>42351854.20393</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>49743317.16234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>49419050.31407001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>62746103.412</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>471266.41778</v>
+        <v>467961.1062999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>512329.9611</v>
+        <v>509560.76092</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>781042.9556600001</v>
+        <v>778658.9979099999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>820962.4640299999</v>
+        <v>815642.9115699999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1022243.60526</v>
+        <v>1019359.93368</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1050895.58382</v>
+        <v>1037378.90178</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>228557.37812</v>
+        <v>1234164.78321</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1499836.09504</v>
+        <v>1496552.03767</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2200080.91912</v>
+        <v>2179292.03409</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2954439.31163</v>
+        <v>2935311.15471</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3139268.87101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3094903.72668</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1664400.969</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1357947.58153</v>
+        <v>1351614.40431</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1236333.51985</v>
+        <v>1232076.83707</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1620739.92956</v>
+        <v>1610924.18581</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2120006.32054</v>
+        <v>2104325.02808</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2720105.48392</v>
+        <v>2710887.38745</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2446751.99911</v>
+        <v>3145026.00921</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2027967.78221</v>
+        <v>3441656.13526</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3981156.17562</v>
+        <v>3944873.09558</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>4773919.171</v>
+        <v>4738824.26011</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6006515.306879999</v>
+        <v>5995851.52634</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7368528.771229999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7340705.28826</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7104251.795</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>222202.08461</v>
+        <v>220609.69007</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>128295.44291</v>
+        <v>126756.45424</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>151712.48293</v>
+        <v>150476.53542</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>198691.94039</v>
+        <v>195659.63639</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>262899.18122</v>
+        <v>260123.84273</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>331843.16838</v>
+        <v>323839.28743</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>234871.84895</v>
+        <v>336492.17619</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>483130.0251300001</v>
+        <v>483437.88407</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>580423.34641</v>
+        <v>564969.5202799999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>573394.9731299999</v>
+        <v>566489.29876</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>668994.69596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>644646.00359</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>756570.8</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>978485.1148099999</v>
+        <v>973750.2371299999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>926241.9285599999</v>
+        <v>923987.65412</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1244511.84511</v>
+        <v>1238383.59452</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1664454.07527</v>
+        <v>1654527.66014</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2187505.03251</v>
+        <v>2181461.6405</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1792298.16128</v>
+        <v>2477443.534109999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1663161.3764</v>
+        <v>2706027.01481</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3091469.81695</v>
+        <v>3057827.63425</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3651539.38088</v>
+        <v>3637001.74815</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4569080.183940001</v>
+        <v>4566121.39211</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5778999.012279999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5778333.29602</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5162351.964</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>157260.38211</v>
+        <v>157254.47711</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>181796.14838</v>
+        <v>181332.72871</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>224515.60152</v>
+        <v>222064.05587</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>256860.30488</v>
+        <v>254137.73155</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>269701.27019</v>
+        <v>269301.90422</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>322610.66945</v>
+        <v>343743.18767</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>129934.55686</v>
+        <v>399136.94426</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>406556.33354</v>
+        <v>403607.57726</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>541956.4437099999</v>
+        <v>536852.9916800001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>864040.14981</v>
+        <v>863240.8354699999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>920535.06299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>917725.98865</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1185329.031</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>21038917.47612</v>
+        <v>20803920.39785</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>23868875.90227</v>
+        <v>23669359.00718</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>32312546.34792</v>
+        <v>32065485.79348</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>35012255.70125</v>
+        <v>34682565.19817</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>39371308.93627</v>
+        <v>38992195.99683</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>42652440.83015</v>
+        <v>43066694.73398</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>31645004.47904</v>
+        <v>48651115.96785001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>55271480.83685999</v>
+        <v>55311357.64223</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>73908626.66300002</v>
+        <v>72847911.21404001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>87699486.73470001</v>
+        <v>86728119.241</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>98435254.62197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>97328859.14353999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>126939820.095</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>15879011.79487</v>
+        <v>15688573.41471</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>19035021.80954</v>
+        <v>18863579.90516</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>26062116.54037</v>
+        <v>25844943.97157</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>28776555.21017</v>
+        <v>28480047.04584</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>31221017.16833001</v>
+        <v>30910126.24251</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>34403164.16753</v>
+        <v>34777070.46768</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>25625114.47453</v>
+        <v>38572550.15133</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>43588085.91528</v>
+        <v>43575029.06846</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>59978781.72559</v>
+        <v>59147664.78726</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>70700097.74103999</v>
+        <v>69958949.63434999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>81332157.02569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>80551938.72395</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>100535558.198</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>12399278.72703</v>
+        <v>12251203.53389</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>14591537.24808</v>
+        <v>14462005.33976</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>20039596.86741</v>
+        <v>19885035.77467</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>22630989.84488</v>
+        <v>22400544.86076</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>24550659.46693001</v>
+        <v>24302219.21586001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>27251312.69161</v>
+        <v>27657343.36606999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>21580974.96971</v>
+        <v>30771380.5777</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>34483229.59968</v>
+        <v>34573404.92083</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>47077078.9545</v>
+        <v>46446366.24638</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>57082519.41686</v>
+        <v>56504637.36006</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>66857217.35817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>66146676.99516999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>82441783.013</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1949515.47592</v>
+        <v>1918621.42221</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3023403.38587</v>
+        <v>3007161.29703</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4174197.52851</v>
+        <v>4156547.108090001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4280298.9055</v>
+        <v>4262591.25138</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4470234.97933</v>
+        <v>4426026.435190001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4606493.207810001</v>
+        <v>4581212.001569999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2958842.50635</v>
+        <v>5315874.07945</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5854226.251390001</v>
+        <v>5806770.586239999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>8196117.14292</v>
+        <v>8066009.343149999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>8353535.235119999</v>
+        <v>8199925.15352</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>8011088.56493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7966111.08182</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>10224293.128</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>910506.8546899999</v>
+        <v>900413.5530399999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>668460.15</v>
+        <v>643283.06429</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>763392.9938300001</v>
+        <v>718743.0946000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>701920.26121</v>
+        <v>672078.66111</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>873866.5719899999</v>
+        <v>856740.7948799999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1060453.17483</v>
+        <v>1055521.89505</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>325626.40833</v>
+        <v>840965.7819300001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1490188.75343</v>
+        <v>1438600.65832</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1715258.98083</v>
+        <v>1648657.45716</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1248105.69598</v>
+        <v>1245937.68672</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1840963.65924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1832094.25546</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2211222.881</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>619710.73723</v>
+        <v>618334.9055700001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>751621.02559</v>
+        <v>751130.2040800001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1084929.15062</v>
+        <v>1084617.99421</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1163346.19858</v>
+        <v>1144832.27259</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1326256.15008</v>
+        <v>1325139.79658</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1484905.09328</v>
+        <v>1482993.20499</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>759670.59014</v>
+        <v>1644329.71225</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1760441.31078</v>
+        <v>1756252.90307</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2990326.64734</v>
+        <v>2986631.74057</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4015937.39308</v>
+        <v>4008449.43405</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4622887.44335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4607056.3915</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5658259.176</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>5159905.681249999</v>
+        <v>5115346.98314</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4833854.09273</v>
+        <v>4805779.102019999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6250429.807549999</v>
+        <v>6220541.821909999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6235700.49108</v>
+        <v>6202518.152329999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8150291.767940001</v>
+        <v>8082069.754320001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8249276.66262</v>
+        <v>8289624.2663</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6019890.00451</v>
+        <v>10078565.81652</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>11683394.92158</v>
+        <v>11736328.57377</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>13929844.93741</v>
+        <v>13700246.42678</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>16999388.99366</v>
+        <v>16769169.60665</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>17103097.59628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16776920.41959</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>26404261.897</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2843836.07474</v>
+        <v>2807241.90986</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3129983.84132</v>
+        <v>3097218.818609999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3912212.65147</v>
+        <v>3879342.661520001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4274577.19862</v>
+        <v>4220525.55014</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4833796.765</v>
+        <v>4766908.213760001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5322408.52472</v>
+        <v>5272046.25966</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3683725.129440001</v>
+        <v>6262544.142030001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>7401484.242950001</v>
+        <v>7413498.00706</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7637300.02875</v>
+        <v>7487136.219439999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8791095.549060002</v>
+        <v>8681991.470170001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10095001.22145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9957979.044020001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12157403.916</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>127386.61209</v>
+        <v>126215.37505</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>146513.64237</v>
+        <v>145892.56837</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>163671.88395</v>
+        <v>163372.07535</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>183931.59351</v>
+        <v>181979.4423</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>233540.95592</v>
+        <v>232425.02229</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>252077.05449</v>
+        <v>250447.22301</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>179914.80845</v>
+        <v>342828.85434</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>375863.59471</v>
+        <v>371613.7963200001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>428383.82275</v>
+        <v>421533.22867</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>494819.24602</v>
+        <v>490655.07754</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>642746.6002999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>631729.6994200001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>783853.55</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1622976.1387</v>
+        <v>1613291.83899</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1749424.04752</v>
+        <v>1740410.08442</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2280816.29614</v>
+        <v>2273980.30199</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2440148.83324</v>
+        <v>2429816.73669</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2761444.82145</v>
+        <v>2742950.09611</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2975342.24287</v>
+        <v>2963548.37654</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1860736.11155</v>
+        <v>3554124.61542</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4196307.6091</v>
+        <v>4240723.62642</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3899896.29252</v>
+        <v>3853675.41815</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4536571.10417</v>
+        <v>4483944.35773</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4994277.61216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4942418.13864</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>6210056.512</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1093473.32395</v>
+        <v>1067734.69582</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1234046.15143</v>
+        <v>1210916.16582</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1467724.47138</v>
+        <v>1441990.28418</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1650496.77187</v>
+        <v>1608729.37115</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1838810.98763</v>
+        <v>1791533.09536</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2094989.22736</v>
+        <v>2058050.66011</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1643074.20944</v>
+        <v>2365590.67227</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2829313.03914</v>
+        <v>2801160.58432</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3309019.91348</v>
+        <v>3211927.57262</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3759705.19887</v>
+        <v>3707392.034899999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4457977.008990001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4383831.20596</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5163493.854</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2316069.60651</v>
+        <v>2308105.07328</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1703870.25141</v>
+        <v>1708560.28341</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2338217.15608</v>
+        <v>2341199.16039</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1961123.29246</v>
+        <v>1981992.60219</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3316495.00294</v>
+        <v>3315161.54056</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2926868.1379</v>
+        <v>3017578.00664</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2336164.87507</v>
+        <v>3816021.67449</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4281910.67863</v>
+        <v>4322830.56671</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6292544.90866</v>
+        <v>6213110.20734</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8208293.444599999</v>
+        <v>8087178.136480001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7008096.37483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6818941.37557</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>14246857.981</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1255279.31852</v>
+        <v>1203401.35926</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1184855.58324</v>
+        <v>1137144.94455</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2034425.53291</v>
+        <v>1977335.42174</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1680387.48377</v>
+        <v>1645290.49127</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2859735.62607</v>
+        <v>2814684.02429</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3046211.6563</v>
+        <v>3087395.74192</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4035544.37821</v>
+        <v>5101201.4384</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4536182.860660001</v>
+        <v>4426174.730469999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5700543.14472</v>
+        <v>5595308.3188</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>16997187.33146</v>
+        <v>16655295.07043</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>10200719.45843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9989649.285540001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>17200996.063</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>18285.76633</v>
+        <v>17822.59308</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>60784.22774</v>
+        <v>60730.99647</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>72711.23169</v>
+        <v>72626.89783999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>40580.12964</v>
+        <v>40491.40173999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>207254.10068</v>
+        <v>207136.65037</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>114958.01921</v>
+        <v>118387.32954</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>456.7637</v>
+        <v>196469.82229</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>19923.26022</v>
+        <v>19906.6531</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>132862.28951</v>
+        <v>132752.38003</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1110302.35773</v>
+        <v>1110300.09216</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>430642.05717</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>430638.92178</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>777662.911</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>18975.0035</v>
@@ -1814,13 +1830,13 @@
         <v>11737.51427</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>5750.671</v>
+        <v>5429.191</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>2587.64905</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>9579.121999999998</v>
+        <v>9579.121999999999</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>12531.84699</v>
@@ -1829,61 +1845,71 @@
         <v>40317.93785</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>46531.12754</v>
+        <v>34223.62754</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>101717.01064</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>53792.40553</v>
+        <v>35174.81221</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>22115.76159</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>7565.078</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>119858.39472</v>
+        <v>118753.56749</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>91695.17204999998</v>
+        <v>90928.35166</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>106436.33143</v>
+        <v>102449.13948</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>139215.34056</v>
+        <v>134395.85311</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>127771.81482</v>
+        <v>123049.22667</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>155368.4598</v>
+        <v>149773.60063</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>220552.18422</v>
+        <v>249197.15704</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>273249.2179099999</v>
+        <v>265654.05589</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>244614.84842</v>
+        <v>235701.76861</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>807914.69449</v>
+        <v>790942.9588800002</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>867661.4609700001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>850232.1899599999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>513194.367</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>5293.22484</v>
@@ -1898,187 +1924,212 @@
         <v>10773.46561</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>10278.7877</v>
+        <v>10252.7877</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7020.70844</v>
+        <v>7020.708439999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5009.44472</v>
+        <v>9496.60548</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>16173.05831</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>45325.0941</v>
+        <v>44420.85063</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>35183.75317</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>82161.80725999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>21066.23027</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>13297.314</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>115720.00585</v>
+        <v>88857.47477000002</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>114331.03979</v>
+        <v>87774.95351000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>156652.60997</v>
+        <v>124568.50394</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>79440.32364</v>
+        <v>71929.38439000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>149474.9682</v>
+        <v>149465.2942</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>83549.15276000003</v>
+        <v>82899.16662</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>60837.83353</v>
+        <v>85330.01537000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>91866.35563999999</v>
+        <v>91614.85795000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>60334.77514999999</v>
+        <v>59812.10776000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>130198.92804</v>
+        <v>129755.92511</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>131500.01926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>131496.01926</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>120475.767</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>538.0189300000001</v>
+        <v>529.4845600000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>22977.68566</v>
+        <v>22449.12857999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>16227.59028</v>
+        <v>16209.48837</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>13810.79132</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>23790.31018</v>
+        <v>23277.86646</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>26803.23596</v>
+        <v>26134.16231</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>270970.95944</v>
+        <v>270756.1864899999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>157053.94329</v>
+        <v>93161.54517000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>14375.94205</v>
+        <v>14084.97259</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>142382.26335</v>
+        <v>142382.25582</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>99970.52668000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>99955.88412999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>36412.048</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>747094.81577</v>
+        <v>727930.17847</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>619913.6150899999</v>
+        <v>603249.3762000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1159268.00488</v>
+        <v>1141044.39687</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1055585.63746</v>
+        <v>1035017.17014</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1974016.7689</v>
+        <v>1937022.53619</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2161167.95432</v>
+        <v>2199507.77714</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2846821.996920001</v>
+        <v>3521629.22952</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3141402.51701</v>
+        <v>3091323.5449</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4182128.6952</v>
+        <v>4094984.10754</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12745425.09728</v>
+        <v>12448010.12301</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6924845.52879</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6805897.94439</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>13810547.539</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>85373.32444</v>
+        <v>85023.48157</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>41608.59344</v>
+        <v>41608.59343999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>44867.07239</v>
+        <v>44777.16247</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>68494.39684</v>
+        <v>68266.99631999999</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>57977.79801999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>80338.26579</v>
+        <v>88621.43024000002</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>68996.57795000001</v>
+        <v>86869.82688999998</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>92788.00442999999</v>
+        <v>110031.49281</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>164388.96835</v>
+        <v>163869.41688</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>157887.76775</v>
+        <v>157226.86654</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>249025.1731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>247551.34321</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>229784.782</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.255</v>
@@ -2113,173 +2164,198 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>11.666</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>144140.50914</v>
+        <v>140216.09598</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>215497.53706</v>
+        <v>212355.83228</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>277748.40113</v>
+        <v>275467.02163</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>269736.19778</v>
+        <v>267854.22772</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>299591.95557</v>
+        <v>296922.74268</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>404114.85341</v>
+        <v>402160.56039</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>521580.67988</v>
+        <v>641134.65747</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>697084.3256500001</v>
+        <v>703974.8441399999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>754523.2493100001</v>
+        <v>747693.4321300001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1814100.06412</v>
+        <v>1806318.28353</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1392797.12361</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1380694.99095</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1692044.591</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1005810.2718</v>
+        <v>977585.53072</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>891715.1279499999</v>
+        <v>872452.6720000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1997861.36335</v>
+        <v>1963988.88922</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1453568.76928</v>
+        <v>1427438.79336</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2791200.23589</v>
+        <v>2746871.140519999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2904398.753240001</v>
+        <v>2872217.41579</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3844699.61044</v>
+        <v>4536943.55221</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3795561.48829</v>
+        <v>3809275.38037</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>5219000.9492</v>
+        <v>5122685.95297</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13906647.37687</v>
+        <v>13653492.62304</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7945266.60327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7712809.938859998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14856156.599</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>18606.09118</v>
+        <v>18287.07916</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>15595.83532</v>
+        <v>15336.93791</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>14239.69197</v>
+        <v>13929.54463</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>20443.95851</v>
+        <v>20026.73025</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>30587.07524</v>
+        <v>30000.08276</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>37924.46458</v>
+        <v>36983.87261</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>21008.36977</v>
+        <v>27971.90469</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>29924.26949</v>
+        <v>29884.4323</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>37390.25456</v>
+        <v>36730.75951</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>40213.12397000001</v>
+        <v>40213.12397</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>27672.15566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>27589.05546</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>81094.644</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>204622.72194</v>
+        <v>196857.57525</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>182387.07099</v>
+        <v>180917.02085</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>265774.30477</v>
+        <v>255037.95294</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>200723.51768</v>
+        <v>193746.77843</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>218815.92227</v>
+        <v>209321.42564</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>243951.45369</v>
+        <v>228848.70714</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>107774.21852</v>
+        <v>226948.99888</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>298210.07212</v>
+        <v>303423.42992</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>297448.31764</v>
+        <v>292643.38472</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>567789.5735599999</v>
+        <v>563516.94874</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>384979.8452100001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>381503.25395</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>528423.062</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>816.65862</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>3896.63236</v>
+        <v>3894.01535</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>18242.83257</v>
@@ -2288,19 +2364,19 @@
         <v>11603.79993</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>28786.35273000001</v>
+        <v>28745.92858000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>14065.10577</v>
+        <v>14064.78973</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>20578.60115</v>
+        <v>20525.35354</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>2122.29878</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>8050.76206</v>
+        <v>8050.762060000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>146678.1589</v>
@@ -2308,89 +2384,104 @@
       <c r="M39" s="48" t="n">
         <v>71784.66643</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>14895.092</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>630972.10698</v>
+        <v>612863.2595</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>519822.56588</v>
+        <v>502664.1774299999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1441433.87998</v>
+        <v>1420051.57699</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>942264.2080399999</v>
+        <v>924457.72856</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2096671.88856</v>
+        <v>2062908.10892</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2333039.86408</v>
+        <v>2306443.70956</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3232086.28218</v>
+        <v>3760391.76587</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3118201.13821</v>
+        <v>3090222.235729999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>4233444.93646</v>
+        <v>4146011.21717</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>12311561.97895</v>
+        <v>12068817.99051</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6733436.07131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6550122.078149999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13285937.938</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>36172.81146</v>
+        <v>35766.80274</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>38023.44712</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>68472.21210999999</v>
+        <v>68382.30219</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>54172.73555</v>
+        <v>54163.56569</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>88367.67630000001</v>
+        <v>88367.67629999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>79344.88047</v>
+        <v>88729.84189</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>72629.93244</v>
+        <v>90520.72911999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>104487.41395</v>
+        <v>123274.1811</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>127627.30862</v>
+        <v>127058.24527</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>261754.19003</v>
+        <v>260555.25489</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>216613.80242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>215567.05322</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>226204.19</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>114619.88162</v>
+        <v>112994.15545</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>131989.57628</v>
+        <v>131617.07334</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>189698.44195</v>
+        <v>188344.6799</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>224360.54957</v>
+        <v>223440.1905</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>327971.32079</v>
+        <v>327527.9183200001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>196072.98465</v>
+        <v>197146.49486</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>390622.20638</v>
+        <v>410584.80011</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>242616.29574</v>
+        <v>260348.80254</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>515039.36986</v>
+        <v>512191.58424</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>578650.35146</v>
+        <v>573711.1460300001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>510780.06224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>466243.83165</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>719601.285</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>821490.67317</v>
+        <v>795819.09497</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>490173.1315600001</v>
+        <v>478166.81129</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1042798.78067</v>
+        <v>1029032.91289</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>672329.3723900001</v>
+        <v>657626.9731800001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1511292.68801</v>
+        <v>1488654.05305</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1073298.28818</v>
+        <v>1137606.4447</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1026267.91243</v>
+        <v>2075603.96152</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2459785.8808</v>
+        <v>2379756.8187</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3022516.50509</v>
+        <v>2905494.59557</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>6209652.04987</v>
+        <v>6192515.96979</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4837064.11511</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4776769.495469999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6592822.144</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>521396.39172</v>
+        <v>496552.04724</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>334950.77</v>
+        <v>323133.2688500001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>721553.4410600001</v>
+        <v>707787.5732800001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>517196.6520999999</v>
+        <v>502695.25875</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>725257.2794700001</v>
+        <v>703029.6756600001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>747592.2381900001</v>
+        <v>795485.24839</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>872134.67429</v>
+        <v>1200045.18784</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1442625.46983</v>
+        <v>1386768.98539</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1857953.09072</v>
+        <v>1783818.81029</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3559225.70632</v>
+        <v>3542528.29381</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3275934.67458</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3218591.59272</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3916181.27</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>300094.28145</v>
+        <v>299267.04773</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>155222.36156</v>
+        <v>155033.54244</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>321245.33961</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>155132.72029</v>
+        <v>154931.71443</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>786035.40854</v>
+        <v>785624.37739</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>325706.04999</v>
+        <v>342121.19631</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>154133.23814</v>
+        <v>875558.77368</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1017160.41097</v>
+        <v>992987.83331</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1164563.41437</v>
+        <v>1121675.78528</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2650426.34355</v>
+        <v>2649987.67598</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1561129.44053</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1558177.90275</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2676640.874</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1744047.98006</v>
+        <v>1738101.80685</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1506837.57514</v>
+        <v>1495085.74467</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1331982.54497</v>
+        <v>1325512.78002</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1515612.63456</v>
+        <v>1542217.32692</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1873737.70511</v>
+        <v>1894320.37128</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1995382.75278</v>
+        <v>2095149.88807</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1500741.73041</v>
+        <v>2304675.59916</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2562746.1702</v>
+        <v>2559973.09811</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3751570.59909</v>
+        <v>3780237.9776</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5089181.349320001</v>
+        <v>4896464.61408</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4426485.11488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4319011.22678</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>9998875.301000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>104071.85947</v>
+        <v>90013.99665999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>95329.59916</v>
+        <v>70221.90774</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>161859.46558</v>
+        <v>130566.25079</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>124739.82796</v>
+        <v>120876.59944</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>259306.07506</v>
+        <v>240330.01485</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>242484.27044</v>
+        <v>221986.80177</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>319067.52139</v>
+        <v>357265.60966</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>457588.3932</v>
+        <v>425207.86401</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>362099.46337</v>
+        <v>346702.2171599999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>435166.08739</v>
+        <v>429663.99496</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>318738.4271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>298213.42562</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1067075.866</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>5303.903890000001</v>
+        <v>4967.93559</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>24856.48844</v>
+        <v>1612.20797</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>61948.51034</v>
+        <v>61590.94482</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>8747.36267</v>
+        <v>8464.387120000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3695.78896</v>
+        <v>3614.78171</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6697.05908</v>
+        <v>6598.55598</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>31675.60781</v>
+        <v>31910.18943</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>11607.29242</v>
+        <v>10745.00126</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>32792.64747</v>
+        <v>32042.06942</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>17084.84336</v>
+        <v>17029.55587</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>13872.47879</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>13806.41558</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>38066.112</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>98767.95558000001</v>
+        <v>85046.06107000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>70473.11072</v>
+        <v>68609.69976999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>99910.95524000001</v>
+        <v>68975.30597</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>115992.46529</v>
+        <v>112412.21232</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>255610.2861</v>
+        <v>236715.23314</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>235787.21136</v>
+        <v>215388.24579</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>287391.91358</v>
+        <v>325355.42023</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>445981.10078</v>
+        <v>414462.8627499999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>329306.8159</v>
+        <v>314660.14774</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>418081.2440300001</v>
+        <v>412634.43909</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>304865.94831</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>284407.01004</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1029009.754</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>133684.89369</v>
+        <v>116275.89183</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>97963.06101</v>
+        <v>86131.74253</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>264186.15104</v>
+        <v>224971.52279</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>189259.81083</v>
+        <v>168901.80589</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>190259.63274</v>
+        <v>179499.9886</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>197001.92417</v>
+        <v>172126.49789</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>211550.17364</v>
+        <v>271301.45159</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>406729.55283</v>
+        <v>368825.81917</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>319993.6584200001</v>
+        <v>304865.05203</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>393737.87226</v>
+        <v>386148.525</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>424577.90554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>399228.4221</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>532015.135</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>30836.34837</v>
+        <v>20599.06111</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>18686.47885</v>
+        <v>10622.11204</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>21154.83359</v>
+        <v>12463.45671</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>57474.02589</v>
+        <v>44294.41548999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>60597.71237000001</v>
+        <v>56743.28411</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>41434.89837</v>
+        <v>35784.16672</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>37394.01547</v>
+        <v>41391.09753</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>42355.21491</v>
+        <v>38168.27525999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>64560.79422</v>
+        <v>64242.74019</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>98485.49331000001</v>
+        <v>94628.28142</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>125574.57905</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>170234.354</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>14117.01039</v>
+        <v>9021.96761</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>11791.1778</v>
+        <v>10301.76437</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>29664.47597</v>
+        <v>23189.08292</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>50119.24839000001</v>
+        <v>45672.34867</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>21562.75363</v>
+        <v>18584.50797</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>31823.81895</v>
+        <v>28160.33871</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>61315.29593</v>
+        <v>66190.24553</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>91512.69286999998</v>
+        <v>82646.18222</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>54947.84344</v>
+        <v>54809.56866</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>79444.07458999999</v>
+        <v>79425.51231000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>62813.58202999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>62787.84314</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>104044.205</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>88731.53492999999</v>
+        <v>86654.86311000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>67485.40436</v>
+        <v>65207.86612</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>213366.84148</v>
+        <v>189318.98316</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>81666.53654999999</v>
+        <v>78935.04173</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>108099.16674</v>
+        <v>104172.19652</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>123743.20685</v>
+        <v>108181.99246</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>112840.86224</v>
+        <v>163720.10853</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>272861.64505</v>
+        <v>248011.36169</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>200485.02076</v>
+        <v>185812.74318</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>215808.30436</v>
+        <v>212094.73127</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>236189.74446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>210865.99991</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>257736.576</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1714434.94584</v>
+        <v>1711839.91168</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1504204.11329</v>
+        <v>1479175.90988</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1229655.85951</v>
+        <v>1231107.50802</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1451092.65169</v>
+        <v>1494192.12047</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1942784.14743</v>
+        <v>1955150.39753</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2040865.09905</v>
+        <v>2145010.19195</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1608259.07816</v>
+        <v>2390639.75723</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2613605.01057</v>
+        <v>2616355.14295</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3793676.40404</v>
+        <v>3822075.14273</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5130609.564449999</v>
+        <v>4939980.08404</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4320645.63644</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4217996.2303</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>10533936.032</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>302550.32697</v>
+        <v>301872.64735</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>258841.85112</v>
+        <v>257791.47147</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>290670.75842</v>
+        <v>288634.05621</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>261910.15983</v>
+        <v>258725.82205</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>282955.20014</v>
+        <v>280127.84764</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>333990.39737</v>
+        <v>335149.19669</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>227621.06521</v>
+        <v>340621.0800499999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>298664.95841</v>
+        <v>296747.08251</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>324546.02425</v>
+        <v>316337.59596</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>524749.92365</v>
+        <v>511643.53169</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>311988.18647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>306651.37449</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>662114</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1411884.61887</v>
+        <v>1409967.26433</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1245362.26217</v>
+        <v>1221384.43841</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>938985.1010900001</v>
+        <v>942473.4518100001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1189182.49186</v>
+        <v>1235466.29842</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1659828.94729</v>
+        <v>1675022.54989</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1706874.70168</v>
+        <v>1809860.99526</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1380638.01295</v>
+        <v>2050018.67718</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2314940.05216</v>
+        <v>2319608.06044</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3469130.37979</v>
+        <v>3505737.54677</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4605859.6408</v>
+        <v>4428336.55235</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4008657.44997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3911344.855810001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>9871822.032</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>135</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>